--- a/words.xlsx
+++ b/words.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0- Programming\1- Web Design\9- Laravel\learnflow-filament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0B796C-262C-48A1-A2A5-CAC88994B469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F53C3C-8DC6-43B9-AED8-4C217A01077E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27667,8 +27667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5E687CD-5842-4FF3-8D92-192C0D94B3D7}">
   <dimension ref="A1:I119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/words.xlsx
+++ b/words.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29019"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29024"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0- Programming\1- Web Design\9- Laravel\learnflow-filament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F53C3C-8DC6-43B9-AED8-4C217A01077E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5313A2C5-5497-46E4-B32D-034EF8DAC9DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="10920" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="7" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2532" uniqueCount="2198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2608" uniqueCount="2268">
   <si>
     <t>FID</t>
   </si>
@@ -6945,6 +6945,216 @@
   </si>
   <si>
     <t>اوگانسون</t>
+  </si>
+  <si>
+    <t>اَمان</t>
+  </si>
+  <si>
+    <t>اَمنیت</t>
+  </si>
+  <si>
+    <t>خَشَب</t>
+  </si>
+  <si>
+    <t>چوب</t>
+  </si>
+  <si>
+    <t>اخشاب</t>
+  </si>
+  <si>
+    <t>چوب ها</t>
+  </si>
+  <si>
+    <t>جمع {خشب}</t>
+  </si>
+  <si>
+    <t>خَشَبیّ</t>
+  </si>
+  <si>
+    <t>چوبی</t>
+  </si>
+  <si>
+    <t>خَیر</t>
+  </si>
+  <si>
+    <t>بهتر، بهترین</t>
+  </si>
+  <si>
+    <t>خَیرٌ مِن</t>
+  </si>
+  <si>
+    <t>بهتر است از</t>
+  </si>
+  <si>
+    <t>دَهر</t>
+  </si>
+  <si>
+    <t>روزگار</t>
+  </si>
+  <si>
+    <t>ذَهَب</t>
+  </si>
+  <si>
+    <t>رَأی</t>
+  </si>
+  <si>
+    <t>نَظَر، فکر</t>
+  </si>
+  <si>
+    <t>رَأیانِ</t>
+  </si>
+  <si>
+    <t>دو نظر، دو فکر</t>
+  </si>
+  <si>
+    <t>رایٌ واحِدٌ</t>
+  </si>
+  <si>
+    <t>یک نظر، یک فکر</t>
+  </si>
+  <si>
+    <t>رِضا</t>
+  </si>
+  <si>
+    <t>رضایت</t>
+  </si>
+  <si>
+    <t>صِحَّة</t>
+  </si>
+  <si>
+    <t>سلامتی، تندرستی</t>
+  </si>
+  <si>
+    <t>عَلَی</t>
+  </si>
+  <si>
+    <t>بر، روی</t>
+  </si>
+  <si>
+    <t>عَلَیکَ</t>
+  </si>
+  <si>
+    <t>بر تو، به زیانِ تو</t>
+  </si>
+  <si>
+    <t>کُرسی</t>
+  </si>
+  <si>
+    <t>کُرسیّانِ خَشَبیّان</t>
+  </si>
+  <si>
+    <t>دو صندلی چوبی</t>
+  </si>
+  <si>
+    <t>کَلام</t>
+  </si>
+  <si>
+    <t>سخن</t>
+  </si>
+  <si>
+    <t>لِـ</t>
+  </si>
+  <si>
+    <t>برای</t>
+  </si>
+  <si>
+    <t>لَکَ</t>
+  </si>
+  <si>
+    <t>برایت، به سودِ تو</t>
+  </si>
+  <si>
+    <t>ـکَ</t>
+  </si>
+  <si>
+    <t>ـَت، ـِتو</t>
+  </si>
+  <si>
+    <t>لِهذَا الصَّف</t>
+  </si>
+  <si>
+    <t>این کلاس دارد (برای این کلاس هست)</t>
+  </si>
+  <si>
+    <t>مَجهول</t>
+  </si>
+  <si>
+    <t>ناشناخته، گمنام</t>
+  </si>
+  <si>
+    <t>مَرء</t>
+  </si>
+  <si>
+    <t>انسان، مرد</t>
+  </si>
+  <si>
+    <t>إمرَأ</t>
+  </si>
+  <si>
+    <t>مَسرور</t>
+  </si>
+  <si>
+    <t>خوشحال</t>
+  </si>
+  <si>
+    <t>مِن</t>
+  </si>
+  <si>
+    <t>از</t>
+  </si>
+  <si>
+    <t>نافِذَة</t>
+  </si>
+  <si>
+    <t>پنجره</t>
+  </si>
+  <si>
+    <t>نِعمَتانِ مَجهولَتانِ</t>
+  </si>
+  <si>
+    <t>دو نعمت ناشناخته هستند</t>
+  </si>
+  <si>
+    <t>نَظیف</t>
+  </si>
+  <si>
+    <t>پاکیزه</t>
+  </si>
+  <si>
+    <t>والِدَینِ</t>
+  </si>
+  <si>
+    <t>پدر و مادر</t>
+  </si>
+  <si>
+    <t>واحِد</t>
+  </si>
+  <si>
+    <t>وَرد</t>
+  </si>
+  <si>
+    <t>گُل</t>
+  </si>
+  <si>
+    <t>وَردَة</t>
+  </si>
+  <si>
+    <t>هِ، هُ</t>
+  </si>
+  <si>
+    <t>ـَش، ـِ او، ـِ آن</t>
+  </si>
+  <si>
+    <t>ذَهَبِهِ</t>
+  </si>
+  <si>
+    <t>طلایش</t>
+  </si>
+  <si>
+    <t>هاتانِ</t>
+  </si>
+  <si>
+    <t>این دو، اینها، این، {اسم اشاره به دو مؤنث}</t>
   </si>
 </sst>
 </file>
@@ -7239,17 +7449,17 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7611,11 +7821,11 @@
       <c r="E3" s="5">
         <v>1</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="35" t="s">
         <v>1873</v>
       </c>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
     </row>
     <row r="4" spans="1:9" ht="15.75">
       <c r="A4" s="5">
@@ -7633,9 +7843,9 @@
       <c r="E4" s="5">
         <v>1</v>
       </c>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
     </row>
     <row r="5" spans="1:9" ht="15.75">
       <c r="A5" s="5">
@@ -13355,11 +13565,11 @@
       <c r="E3" s="5">
         <v>1</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="35" t="s">
         <v>1874</v>
       </c>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
     </row>
     <row r="4" spans="1:9" ht="15.75">
       <c r="A4" s="5">
@@ -19147,11 +19357,11 @@
       <c r="E3" s="5">
         <v>1</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="35" t="s">
         <v>1875</v>
       </c>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
     </row>
     <row r="4" spans="1:9" ht="15.75">
       <c r="A4" s="5">
@@ -20343,7 +20553,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="24">
+    <row r="74" spans="1:5" ht="15.75">
       <c r="A74" s="5">
         <v>73</v>
       </c>
@@ -24729,7 +24939,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="332" spans="1:5" ht="30">
+    <row r="332" spans="1:5" ht="15.75">
       <c r="A332" s="5">
         <v>331</v>
       </c>
@@ -26051,8 +26261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85181D92-9A7A-4A9F-AD06-7F58341FFAF7}">
   <dimension ref="A1:I118"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:I3"/>
+    <sheetView tabSelected="1" topLeftCell="B77" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -26080,11 +26290,11 @@
       <c r="E1" s="25" t="s">
         <v>1881</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="37" t="s">
         <v>1871</v>
       </c>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
     </row>
     <row r="2" spans="1:9" ht="23.25">
       <c r="A2" s="26">
@@ -26102,13 +26312,13 @@
       <c r="E2" s="26">
         <v>1</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="33" t="s">
         <v>1870</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="H2" s="33" t="s">
         <v>1869</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="33" t="s">
         <v>1872</v>
       </c>
     </row>
@@ -26128,11 +26338,11 @@
       <c r="E3" s="26">
         <v>1</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="G3" s="34" t="s">
         <v>1925</v>
       </c>
-      <c r="H3" s="35"/>
-      <c r="I3" s="34" t="s">
+      <c r="H3" s="34"/>
+      <c r="I3" s="33" t="s">
         <v>2036</v>
       </c>
     </row>
@@ -26854,21 +27064,29 @@
       <c r="A46" s="26">
         <v>45</v>
       </c>
-      <c r="B46" s="26"/>
-      <c r="C46" s="26"/>
+      <c r="B46" s="26" t="s">
+        <v>2198</v>
+      </c>
+      <c r="C46" s="26" t="s">
+        <v>2199</v>
+      </c>
       <c r="D46" s="26">
         <v>7</v>
       </c>
       <c r="E46" s="26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="23.25">
       <c r="A47" s="26">
         <v>46</v>
       </c>
-      <c r="B47" s="26"/>
-      <c r="C47" s="26"/>
+      <c r="B47" s="26" t="s">
+        <v>2200</v>
+      </c>
+      <c r="C47" s="26" t="s">
+        <v>2201</v>
+      </c>
       <c r="D47" s="26">
         <v>7</v>
       </c>
@@ -26878,8 +27096,12 @@
       <c r="A48" s="26">
         <v>47</v>
       </c>
-      <c r="B48" s="26"/>
-      <c r="C48" s="26"/>
+      <c r="B48" s="26" t="s">
+        <v>2202</v>
+      </c>
+      <c r="C48" s="26" t="s">
+        <v>2203</v>
+      </c>
       <c r="D48" s="26">
         <v>7</v>
       </c>
@@ -26889,8 +27111,12 @@
       <c r="A49" s="26">
         <v>48</v>
       </c>
-      <c r="B49" s="26"/>
-      <c r="C49" s="26"/>
+      <c r="B49" s="26" t="s">
+        <v>2204</v>
+      </c>
+      <c r="C49" s="26" t="s">
+        <v>2202</v>
+      </c>
       <c r="D49" s="26">
         <v>7</v>
       </c>
@@ -26900,8 +27126,12 @@
       <c r="A50" s="26">
         <v>49</v>
       </c>
-      <c r="B50" s="26"/>
-      <c r="C50" s="26"/>
+      <c r="B50" s="26" t="s">
+        <v>2205</v>
+      </c>
+      <c r="C50" s="26" t="s">
+        <v>2206</v>
+      </c>
       <c r="D50" s="26">
         <v>7</v>
       </c>
@@ -26911,8 +27141,12 @@
       <c r="A51" s="26">
         <v>50</v>
       </c>
-      <c r="B51" s="26"/>
-      <c r="C51" s="26"/>
+      <c r="B51" s="26" t="s">
+        <v>2207</v>
+      </c>
+      <c r="C51" s="26" t="s">
+        <v>2208</v>
+      </c>
       <c r="D51" s="26">
         <v>7</v>
       </c>
@@ -26922,8 +27156,12 @@
       <c r="A52" s="26">
         <v>51</v>
       </c>
-      <c r="B52" s="26"/>
-      <c r="C52" s="26"/>
+      <c r="B52" s="26" t="s">
+        <v>2209</v>
+      </c>
+      <c r="C52" s="26" t="s">
+        <v>2210</v>
+      </c>
       <c r="D52" s="26">
         <v>7</v>
       </c>
@@ -26933,8 +27171,12 @@
       <c r="A53" s="26">
         <v>52</v>
       </c>
-      <c r="B53" s="26"/>
-      <c r="C53" s="26"/>
+      <c r="B53" s="26" t="s">
+        <v>2211</v>
+      </c>
+      <c r="C53" s="26" t="s">
+        <v>2212</v>
+      </c>
       <c r="D53" s="26">
         <v>7</v>
       </c>
@@ -26944,8 +27186,12 @@
       <c r="A54" s="26">
         <v>53</v>
       </c>
-      <c r="B54" s="26"/>
-      <c r="C54" s="26"/>
+      <c r="B54" s="26" t="s">
+        <v>2213</v>
+      </c>
+      <c r="C54" s="26" t="s">
+        <v>1057</v>
+      </c>
       <c r="D54" s="26">
         <v>7</v>
       </c>
@@ -26955,8 +27201,12 @@
       <c r="A55" s="26">
         <v>54</v>
       </c>
-      <c r="B55" s="26"/>
-      <c r="C55" s="26"/>
+      <c r="B55" s="26" t="s">
+        <v>2214</v>
+      </c>
+      <c r="C55" s="26" t="s">
+        <v>2215</v>
+      </c>
       <c r="D55" s="26">
         <v>7</v>
       </c>
@@ -26966,8 +27216,12 @@
       <c r="A56" s="26">
         <v>55</v>
       </c>
-      <c r="B56" s="26"/>
-      <c r="C56" s="26"/>
+      <c r="B56" s="26" t="s">
+        <v>2216</v>
+      </c>
+      <c r="C56" s="26" t="s">
+        <v>2217</v>
+      </c>
       <c r="D56" s="26">
         <v>7</v>
       </c>
@@ -26977,8 +27231,12 @@
       <c r="A57" s="26">
         <v>56</v>
       </c>
-      <c r="B57" s="26"/>
-      <c r="C57" s="26"/>
+      <c r="B57" s="26" t="s">
+        <v>2218</v>
+      </c>
+      <c r="C57" s="26" t="s">
+        <v>2219</v>
+      </c>
       <c r="D57" s="26">
         <v>7</v>
       </c>
@@ -26988,8 +27246,12 @@
       <c r="A58" s="26">
         <v>57</v>
       </c>
-      <c r="B58" s="26"/>
-      <c r="C58" s="26"/>
+      <c r="B58" s="26" t="s">
+        <v>2220</v>
+      </c>
+      <c r="C58" s="26" t="s">
+        <v>2221</v>
+      </c>
       <c r="D58" s="26">
         <v>7</v>
       </c>
@@ -26999,8 +27261,12 @@
       <c r="A59" s="26">
         <v>58</v>
       </c>
-      <c r="B59" s="26"/>
-      <c r="C59" s="26"/>
+      <c r="B59" s="26" t="s">
+        <v>2222</v>
+      </c>
+      <c r="C59" s="26" t="s">
+        <v>2223</v>
+      </c>
       <c r="D59" s="26">
         <v>7</v>
       </c>
@@ -27010,8 +27276,12 @@
       <c r="A60" s="26">
         <v>59</v>
       </c>
-      <c r="B60" s="26"/>
-      <c r="C60" s="26"/>
+      <c r="B60" s="26" t="s">
+        <v>2224</v>
+      </c>
+      <c r="C60" s="26" t="s">
+        <v>2225</v>
+      </c>
       <c r="D60" s="26">
         <v>7</v>
       </c>
@@ -27021,8 +27291,12 @@
       <c r="A61" s="26">
         <v>60</v>
       </c>
-      <c r="B61" s="26"/>
-      <c r="C61" s="26"/>
+      <c r="B61" s="26" t="s">
+        <v>2226</v>
+      </c>
+      <c r="C61" s="26" t="s">
+        <v>2227</v>
+      </c>
       <c r="D61" s="26">
         <v>7</v>
       </c>
@@ -27032,8 +27306,12 @@
       <c r="A62" s="26">
         <v>61</v>
       </c>
-      <c r="B62" s="26"/>
-      <c r="C62" s="26"/>
+      <c r="B62" s="26" t="s">
+        <v>2228</v>
+      </c>
+      <c r="C62" s="26" t="s">
+        <v>85</v>
+      </c>
       <c r="D62" s="26">
         <v>7</v>
       </c>
@@ -27043,8 +27321,12 @@
       <c r="A63" s="26">
         <v>62</v>
       </c>
-      <c r="B63" s="26"/>
-      <c r="C63" s="26"/>
+      <c r="B63" s="26" t="s">
+        <v>2229</v>
+      </c>
+      <c r="C63" s="26" t="s">
+        <v>2230</v>
+      </c>
       <c r="D63" s="26">
         <v>7</v>
       </c>
@@ -27054,8 +27336,12 @@
       <c r="A64" s="26">
         <v>63</v>
       </c>
-      <c r="B64" s="26"/>
-      <c r="C64" s="26"/>
+      <c r="B64" s="26" t="s">
+        <v>2231</v>
+      </c>
+      <c r="C64" s="26" t="s">
+        <v>2232</v>
+      </c>
       <c r="D64" s="26">
         <v>7</v>
       </c>
@@ -27065,8 +27351,12 @@
       <c r="A65" s="26">
         <v>64</v>
       </c>
-      <c r="B65" s="26"/>
-      <c r="C65" s="26"/>
+      <c r="B65" s="26" t="s">
+        <v>2233</v>
+      </c>
+      <c r="C65" s="26" t="s">
+        <v>2234</v>
+      </c>
       <c r="D65" s="26">
         <v>7</v>
       </c>
@@ -27076,8 +27366,12 @@
       <c r="A66" s="26">
         <v>65</v>
       </c>
-      <c r="B66" s="26"/>
-      <c r="C66" s="26"/>
+      <c r="B66" s="26" t="s">
+        <v>2235</v>
+      </c>
+      <c r="C66" s="26" t="s">
+        <v>2236</v>
+      </c>
       <c r="D66" s="26">
         <v>7</v>
       </c>
@@ -27087,8 +27381,12 @@
       <c r="A67" s="26">
         <v>66</v>
       </c>
-      <c r="B67" s="26"/>
-      <c r="C67" s="26"/>
+      <c r="B67" s="26" t="s">
+        <v>2237</v>
+      </c>
+      <c r="C67" s="26" t="s">
+        <v>2238</v>
+      </c>
       <c r="D67" s="26">
         <v>7</v>
       </c>
@@ -27098,8 +27396,12 @@
       <c r="A68" s="26">
         <v>67</v>
       </c>
-      <c r="B68" s="26"/>
-      <c r="C68" s="26"/>
+      <c r="B68" s="26" t="s">
+        <v>2239</v>
+      </c>
+      <c r="C68" s="26" t="s">
+        <v>2240</v>
+      </c>
       <c r="D68" s="26">
         <v>7</v>
       </c>
@@ -27109,8 +27411,12 @@
       <c r="A69" s="26">
         <v>68</v>
       </c>
-      <c r="B69" s="26"/>
-      <c r="C69" s="26"/>
+      <c r="B69" s="26" t="s">
+        <v>2241</v>
+      </c>
+      <c r="C69" s="26" t="s">
+        <v>2242</v>
+      </c>
       <c r="D69" s="26">
         <v>7</v>
       </c>
@@ -27120,8 +27426,12 @@
       <c r="A70" s="26">
         <v>69</v>
       </c>
-      <c r="B70" s="26"/>
-      <c r="C70" s="26"/>
+      <c r="B70" s="26" t="s">
+        <v>2243</v>
+      </c>
+      <c r="C70" s="26" t="s">
+        <v>2244</v>
+      </c>
       <c r="D70" s="26">
         <v>7</v>
       </c>
@@ -27131,8 +27441,12 @@
       <c r="A71" s="26">
         <v>70</v>
       </c>
-      <c r="B71" s="26"/>
-      <c r="C71" s="26"/>
+      <c r="B71" s="26" t="s">
+        <v>2245</v>
+      </c>
+      <c r="C71" s="26" t="s">
+        <v>2244</v>
+      </c>
       <c r="D71" s="26">
         <v>7</v>
       </c>
@@ -27142,8 +27456,12 @@
       <c r="A72" s="26">
         <v>71</v>
       </c>
-      <c r="B72" s="26"/>
-      <c r="C72" s="26"/>
+      <c r="B72" s="26" t="s">
+        <v>2246</v>
+      </c>
+      <c r="C72" s="26" t="s">
+        <v>2247</v>
+      </c>
       <c r="D72" s="26">
         <v>7</v>
       </c>
@@ -27153,8 +27471,12 @@
       <c r="A73" s="26">
         <v>72</v>
       </c>
-      <c r="B73" s="26"/>
-      <c r="C73" s="26"/>
+      <c r="B73" s="26" t="s">
+        <v>2248</v>
+      </c>
+      <c r="C73" s="26" t="s">
+        <v>2249</v>
+      </c>
       <c r="D73" s="26">
         <v>7</v>
       </c>
@@ -27164,8 +27486,12 @@
       <c r="A74" s="26">
         <v>73</v>
       </c>
-      <c r="B74" s="26"/>
-      <c r="C74" s="26"/>
+      <c r="B74" s="26" t="s">
+        <v>2250</v>
+      </c>
+      <c r="C74" s="26" t="s">
+        <v>2251</v>
+      </c>
       <c r="D74" s="26">
         <v>7</v>
       </c>
@@ -27175,8 +27501,12 @@
       <c r="A75" s="26">
         <v>74</v>
       </c>
-      <c r="B75" s="26"/>
-      <c r="C75" s="26"/>
+      <c r="B75" s="26" t="s">
+        <v>2252</v>
+      </c>
+      <c r="C75" s="26" t="s">
+        <v>2253</v>
+      </c>
       <c r="D75" s="26">
         <v>7</v>
       </c>
@@ -27186,8 +27516,12 @@
       <c r="A76" s="26">
         <v>75</v>
       </c>
-      <c r="B76" s="26"/>
-      <c r="C76" s="26"/>
+      <c r="B76" s="26" t="s">
+        <v>2254</v>
+      </c>
+      <c r="C76" s="26" t="s">
+        <v>2255</v>
+      </c>
       <c r="D76" s="26">
         <v>7</v>
       </c>
@@ -27197,8 +27531,12 @@
       <c r="A77" s="26">
         <v>76</v>
       </c>
-      <c r="B77" s="26"/>
-      <c r="C77" s="26"/>
+      <c r="B77" s="26" t="s">
+        <v>2256</v>
+      </c>
+      <c r="C77" s="26" t="s">
+        <v>2257</v>
+      </c>
       <c r="D77" s="26">
         <v>7</v>
       </c>
@@ -27208,8 +27546,12 @@
       <c r="A78" s="26">
         <v>77</v>
       </c>
-      <c r="B78" s="26"/>
-      <c r="C78" s="26"/>
+      <c r="B78" s="26" t="s">
+        <v>2258</v>
+      </c>
+      <c r="C78" s="26" t="s">
+        <v>237</v>
+      </c>
       <c r="D78" s="26">
         <v>7</v>
       </c>
@@ -27219,8 +27561,12 @@
       <c r="A79" s="26">
         <v>78</v>
       </c>
-      <c r="B79" s="26"/>
-      <c r="C79" s="26"/>
+      <c r="B79" s="26" t="s">
+        <v>2259</v>
+      </c>
+      <c r="C79" s="26" t="s">
+        <v>2260</v>
+      </c>
       <c r="D79" s="26">
         <v>7</v>
       </c>
@@ -27230,8 +27576,12 @@
       <c r="A80" s="26">
         <v>79</v>
       </c>
-      <c r="B80" s="26"/>
-      <c r="C80" s="26"/>
+      <c r="B80" s="26" t="s">
+        <v>2261</v>
+      </c>
+      <c r="C80" s="26" t="s">
+        <v>2260</v>
+      </c>
       <c r="D80" s="26">
         <v>7</v>
       </c>
@@ -27241,8 +27591,12 @@
       <c r="A81" s="26">
         <v>80</v>
       </c>
-      <c r="B81" s="26"/>
-      <c r="C81" s="26"/>
+      <c r="B81" s="26" t="s">
+        <v>2262</v>
+      </c>
+      <c r="C81" s="26" t="s">
+        <v>2263</v>
+      </c>
       <c r="D81" s="26">
         <v>7</v>
       </c>
@@ -27252,8 +27606,12 @@
       <c r="A82" s="26">
         <v>81</v>
       </c>
-      <c r="B82" s="26"/>
-      <c r="C82" s="26"/>
+      <c r="B82" s="26" t="s">
+        <v>2264</v>
+      </c>
+      <c r="C82" s="26" t="s">
+        <v>2265</v>
+      </c>
       <c r="D82" s="26">
         <v>7</v>
       </c>
@@ -27263,8 +27621,12 @@
       <c r="A83" s="26">
         <v>82</v>
       </c>
-      <c r="B83" s="26"/>
-      <c r="C83" s="26"/>
+      <c r="B83" s="26" t="s">
+        <v>2266</v>
+      </c>
+      <c r="C83" s="26" t="s">
+        <v>2267</v>
+      </c>
       <c r="D83" s="26">
         <v>7</v>
       </c>
@@ -27667,7 +28029,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5E687CD-5842-4FF3-8D92-192C0D94B3D7}">
   <dimension ref="A1:I119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -27696,11 +28058,11 @@
       <c r="E1" s="28" t="s">
         <v>1960</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="37" t="s">
         <v>1871</v>
       </c>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
     </row>
     <row r="2" spans="1:9" ht="34.5">
       <c r="A2" s="29">
@@ -27718,13 +28080,13 @@
       <c r="E2" s="27">
         <v>1</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="33" t="s">
         <v>1870</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="H2" s="33" t="s">
         <v>1869</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="33" t="s">
         <v>1872</v>
       </c>
     </row>
@@ -27744,11 +28106,11 @@
       <c r="E3" s="27">
         <v>18</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="G3" s="34" t="s">
         <v>1981</v>
       </c>
-      <c r="H3" s="35"/>
-      <c r="I3" s="34" t="s">
+      <c r="H3" s="34"/>
+      <c r="I3" s="33" t="s">
         <v>2035</v>
       </c>
     </row>

--- a/words.xlsx
+++ b/words.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29024"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\0- Programming\1- Web Design\9- Laravel\learnflow-filament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5313A2C5-5497-46E4-B32D-034EF8DAC9DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1461C746-8A13-48AA-8F83-5B2215DAE22F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="10920" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="7" sheetId="1" r:id="rId1"/>
     <sheet name="8" sheetId="2" r:id="rId2"/>
     <sheet name="9" sheetId="3" r:id="rId3"/>
-    <sheet name="A7" sheetId="4" r:id="rId4"/>
-    <sheet name="PT" sheetId="5" r:id="rId5"/>
+    <sheet name="10" sheetId="6" r:id="rId4"/>
+    <sheet name="A7" sheetId="4" r:id="rId5"/>
+    <sheet name="PT" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2608" uniqueCount="2268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2618" uniqueCount="2269">
   <si>
     <t>FID</t>
   </si>
@@ -7156,12 +7157,15 @@
   <si>
     <t>این دو، اینها، این، {اسم اشاره به دو مؤنث}</t>
   </si>
+  <si>
+    <t>زبان دهم</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7299,6 +7303,12 @@
       <name val="2  Homa"/>
       <charset val="178"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="_MRT_Khodkar"/>
+      <charset val="178"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -7352,7 +7362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -7460,6 +7470,9 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -13489,7 +13502,7 @@
   <dimension ref="A1:I338"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:I3"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -16632,7 +16645,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="15.75">
+    <row r="184" spans="1:5" ht="31.5">
       <c r="A184" s="5">
         <v>183</v>
       </c>
@@ -19279,8 +19292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62AEE2B7-7CEA-404B-9879-8B8694A228FF}">
   <dimension ref="A1:I408"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:I3"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -26258,10 +26271,96 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9367F40-A148-4018-BA62-7E923C96198A}">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="13.875" customWidth="1"/>
+    <col min="8" max="8" width="15.125" customWidth="1"/>
+    <col min="9" max="9" width="12.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>1871</v>
+      </c>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="5">
+        <v>10</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>1870</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>1869</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="22.5">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="5">
+        <v>10</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>2268</v>
+      </c>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85181D92-9A7A-4A9F-AD06-7F58341FFAF7}">
   <dimension ref="A1:I118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B77" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
@@ -28025,11 +28124,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5E687CD-5842-4FF3-8D92-192C0D94B3D7}">
   <dimension ref="A1:I119"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="A45" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
